--- a/log_reg_example.xlsx
+++ b/log_reg_example.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_function" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Y</t>
   </si>
@@ -56,17 +57,30 @@
   <si>
     <t>epsilon</t>
   </si>
+  <si>
+    <t>Input Data and Vectorized Representation of Class</t>
+  </si>
+  <si>
+    <t>Neural Network Output Scenarios</t>
+  </si>
+  <si>
+    <t>Term 1 in Cost Function</t>
+  </si>
+  <si>
+    <t>Term 2 in Cost Function</t>
+  </si>
+  <si>
+    <t>NN Output</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,8 +104,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +126,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,8 +159,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,16 +207,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -171,6 +293,32 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -186,6 +334,32 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -198,19 +372,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>62378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1026176</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -223,8 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2514600"/>
-          <a:ext cx="1651000" cy="1663700"/>
+          <a:off x="76200" y="252878"/>
+          <a:ext cx="2778776" cy="2795122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,465 +732,704 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <f ca="1">RAND()*0.2</f>
-        <v>0.11152881679954783</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <f ca="1">LOG(B2+ $C$17)</f>
-        <v>-0.95261290127713216</v>
-      </c>
-      <c r="I2">
-        <f ca="1">G2*H2</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.103400416840084</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f>ROUND(LOG(B20+ $G$18), 5)</f>
+        <v>-9</v>
+      </c>
+      <c r="L3" s="2">
+        <f>J3*K3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
-        <f ca="1">LOG(1 - B2+ $C$17)</f>
-        <v>-5.1356653109861726E-2</v>
-      </c>
-      <c r="N2">
-        <f ca="1">L2*M2</f>
-        <v>-5.1356653109861726E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B11" ca="1" si="0">RAND()*0.2</f>
-        <v>0.12583178743521398</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H11" ca="1" si="1">LOG(B3+ $C$17)</f>
-        <v>-0.90020963076648497</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I11" ca="1" si="2">G3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="O3" s="6">
+        <f>ROUND(LOG(1 - B20+ $G$18), 5)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <f>N3*O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.12191388860997809</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:K12" si="0">ROUND(LOG(B21+ $G$18), 5)</f>
+        <v>-9</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L12" si="1">J4*K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M10" ca="1" si="3">LOG(1 - B3+ $C$17)</f>
-        <v>-5.8404989340751931E-2</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" ca="1" si="4">L3*M3</f>
-        <v>-5.8404989340751931E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2">
+      <c r="O4" s="6">
+        <f t="shared" ref="O4:O12" si="2">ROUND(LOG(1 - B21+ $G$18), 5)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P12" si="3">N4*O4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3344204165917993E-2</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="F5" s="6">
+        <v>0.10882643929986552</v>
+      </c>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7">
         <v>-1</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.079124590820425</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.079124590820425</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.7793710783545306E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6133538596257993E-2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.1115256999325684</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.1795782323847137</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="I6" s="4"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2">
         <v>1</v>
       </c>
-      <c r="M5" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.9715220972728811E-2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.9715220972728811E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10211638197360624</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.99090457657855602</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="O6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.18051907012544166</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4.6779951629076333E-2</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.6779951629076333E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6393467157320812E-2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.248771195795213</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="O7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.16619151117036035</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.5209060577882528E-2</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.5209060577882528E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8006370124799637E-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.2365243031200819</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="O8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.11715332560336592</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.595203360320137E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.595203360320137E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1374183613020174E-3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.1464587853855903</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="O9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.9773031067372103E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.1108559673829403E-3</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.1108559673829403E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15681219034944019</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.80462017615433545</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="O10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9.5178610298142299E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>-7.407568036381483E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.407568036381483E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7515129914984345E-2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.1705988858877894</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="O11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.11540141877874642</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="3">
-        <f ca="1">LOG(1 - B11+ $C$17)</f>
-        <v>-3.0358205586400473E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.0358205586400473E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="I14" t="s">
+      <c r="O12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="D13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="I15">
-        <f ca="1">SUM(I2:I11)</f>
-        <v>1.079124590820425</v>
-      </c>
-      <c r="N15">
-        <f ca="1">SUM(N2:N11)</f>
-        <v>-0.34496265115110092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="C16" t="s">
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="2">
+        <f>SUM(L3:L12)</f>
+        <v>9</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2">
+        <f>SUM(P3:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="D16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="3:9">
-      <c r="C17">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2">
         <v>1.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="I20" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="I21">
-        <f ca="1">I15-N15</f>
-        <v>1.424087241971526</v>
-      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="14">
+        <f>L14-P14</f>
+        <v>9</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1028,4 +1441,1277 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="36" customHeight="1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="36" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.57434640522878E-5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.7567159920101699E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-5.8735021786492699E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1.8854336873638401E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1.5169355936819199E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1.1558415032679801E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1.2119359178182699E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-8.9236111111111408E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-1.0968137254901999E-3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.5573937908496799E-4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1.53186274509794E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="36" customHeight="1">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.5949501954320697E-18</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.8140719905426996E-4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1.37254817210793E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.3443805796744302E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.125165453915454</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9.1143705923117296E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.77724104194689E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6.2971007620634303E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.20857282621985E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-2.0703395703396001E-2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-1.5195568872039601E-3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.4231992173167801E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="36" customHeight="1">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.37009803921592E-6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2589869281046201E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1.6410334967321E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-2.4482315495643E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.98422064598527E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.56900701252723296</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.96645991625816996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.865763735702614</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.772614021650327</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.789042351174704</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.69491753472222195</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.27938233592047901</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1.6268858932462001E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-6.5482026143780605E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="36" customHeight="1">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.0678104575166197E-5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.6062431917211302E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1.68807870370415E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.19417727056100201</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.684700141317788</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.0358805998093701</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.0084878472222201</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.92536456631263597</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.733445159313726</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.72701321796910001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.97488311887254797</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.91362447235838695</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.18916040305010901</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1.43194444444441E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="36" customHeight="1">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.2773692810457999E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1.0811036220043599E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.322689236111111</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.88929314746732002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0555362092862099</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.83215871800108898</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.40297246051198199</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.1048253676470002E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.08247549019605E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-5.5821545527435503E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.49221279275599</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.03519104030501</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.50011211533224498</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-3.1452461192810199E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="36" customHeight="1">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-3.4501123366014299E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.8396820533768698E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.66506891680283298</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.0610824993191701</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.71958834400010896</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.20669272535403099</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-3.42762288943348E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-8.9253982843133101E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-4.7918879357295796E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-3.8142197627491797E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.35667116013071798</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.0079728009259299</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.61795823120915105</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-3.7682444852940998E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="36" customHeight="1">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-6.7735722147489101E-4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-6.8406811789164896E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.194085239085239</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.34640624787683599</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.10842015758239E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-2.1037360890302299E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-3.2132811544575897E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.6876605111899401E-4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-3.9045833163480299E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1.24706563742889E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.52982712350359296</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.03734256315139</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.45914782995665399</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-2.92815722962779E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="36" customHeight="1">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.7912581699349005E-5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-6.2465958605660595E-5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1.31728281590415E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-2.1559946895425001E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1.0303799274387499E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-6.3657407407407001E-4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.3613834422657895E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.2044991206683702E-18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-7.0812908496732403E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.24724837960131E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.63071423951524996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.0184592694716801</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.27186172385620899</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1.90228247549016E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="36" customHeight="1">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.27022058823524E-4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-3.39552696078432E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-9.4659926470588608E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-3.1697099673202701E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.14655169309581101</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.94254127519063102</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.85090824142156796</v>
+      </c>
+      <c r="P10" s="1">
+        <v>7.35707209967323E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-7.7516850490192699E-3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="36" customHeight="1">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.8666985168943201E-19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.5645564510781502E-18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-7.5855368343461294E-17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.2551742919355302E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-2.8225340725346599E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-2.95567640250552E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1.5181236383443E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.1636335784312901E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.9298730255990901E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.49380097291862002</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.0528491285403001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.50365388412309298</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1.84852600762529E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1.70598447712402E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="36" customHeight="1">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.73100490196083E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1.7529616013071999E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.74300449346406E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-2.5835886437908399E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.16654267389563E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.29499819580610098</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.54929369212963097</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.70252139501634003</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.73625691040305097</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.940800228961994</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.0351364889705901</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.52267250476579497</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-2.4634803921568301E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-4.1433142701523601E-3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2.7720027720028097E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="36" customHeight="1">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.0531835021257702E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-5.7365680159798399E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-2.4011913497207899E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.196481034201622</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.54822720910956202</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.85658294299605298</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.96380326593562005</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.94813626975391696</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.927998909543027</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.0009428376340099</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.00105515436321</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.96796329134564396</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.980707642031172</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.421746123952007</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1.8832701479760201E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-8.5427992973547003E-4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="36" customHeight="1">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.01613562091504E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-4.5894480453304298E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.1567027505446199E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.31499996595860502</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.94193142361111104</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.94723995778867098</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.69275527224056699</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.46208680555555598</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.190546228213508</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.51886880446623096</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.97670748229847504</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.83078373622491297</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.31744020629085001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.86937013208060998</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.87470445261437901</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.170511523011982</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-2.2608128490481601E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="36" customHeight="1">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1.80725762527234E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-2.1994720965309501E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.37459727328431303</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.96781571691176504</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.93922290305010903</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.34178204997276701</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-2.16395581101466E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.2857281454249399E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.48676947167756102</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.96819476783769098</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.94276974400871405</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.27797404304757201</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-7.4344379765794902E-2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.55915762867647101</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.97655337690631805</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.29900188929738503</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-3.6140393787452901E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="36" customHeight="1">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-9.1877723311547198E-4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-3.2504891769597997E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.37059260961328899</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0072286900871501</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.695127791394335</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.16678523284313801</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.29397525919584699</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.78155267905773396</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.06252958197168</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.82992609613289803</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.34358707788671</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-9.9643308466839699E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-3.0263293164487799E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.394619229983661</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.93709664351851896</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.24955916394335501</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-3.0825078472137599E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="36" customHeight="1">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.5657679738561498E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-2.9873272593861099E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.231598498774509</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.92505763208060998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.92916772194989095</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.89637523828975996</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.0036204190616</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.96464009735838696</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.59663562091503197</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.126516663262527</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1.6778867102396101E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-3.05664261546608E-3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1.3607996323529201E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.22031588711873601</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.55920632489106703</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4.90770697167753E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-8.1990134931312006E-3</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="36" customHeight="1">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-3.11446054383564E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.31083628877745E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.12317751008927399</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.15720139823081</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.159044066691125</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.15162589047877001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.11967474827768899</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8.1019424401773E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-2.0700593127063901E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-9.1206025029554603E-4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.95263983939541E-4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.98728139904924E-5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-1.5501304471894201E-3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.5880926175043499E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-7.0667216990747102E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>5.7724915252126998E-4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="36" customHeight="1">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.21788757082881E-4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-4.0194376361655801E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-1.8363630174292E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-2.1052900326797502E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-2.06699346405229E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-2.1004205563029201E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-1.8275973583877999E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-6.1671092047930398E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2.2790713507625599E-4</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.3999183006534401E-5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.2765522875816699E-4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-1.92214733115469E-3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-7.2773692810457801E-3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.44240196078464E-5</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.6688271982390099E-5</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="36" customHeight="1">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:T20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/log_reg_example.xlsx
+++ b/log_reg_example.xlsx
@@ -735,7 +735,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
